--- a/shop2analyze.xlsx
+++ b/shop2analyze.xlsx
@@ -16,31 +16,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="20">
   <si>
-    <t>Order ID</t>
+    <t>ORDER_ID</t>
   </si>
   <si>
-    <t>Customer_Name</t>
+    <t>CUSTOMER_NAME</t>
   </si>
   <si>
-    <t>Customer_ID</t>
+    <t>CUSTOMER_ID</t>
   </si>
   <si>
-    <t>Cookies Shipped</t>
+    <t>COOKIES_SHIPPED</t>
   </si>
   <si>
-    <t>Revenue</t>
+    <t>REVENUE</t>
   </si>
   <si>
-    <t>Cost</t>
+    <t>COST</t>
   </si>
   <si>
-    <t>Order Date</t>
+    <t>ORDER_DATE</t>
   </si>
   <si>
-    <t>Ship Date</t>
+    <t>SHIP_DATE</t>
   </si>
   <si>
-    <t>Order Status</t>
+    <t>ORDER_STATUS</t>
   </si>
   <si>
     <t xml:space="preserve"> YT Restaurants</t>
@@ -522,7 +522,7 @@
         <v>4935</v>
       </c>
       <c r="G3">
-        <v>2467</v>
+        <v>2467.5</v>
       </c>
       <c r="H3" s="2">
         <v>43100</v>
@@ -586,7 +586,7 @@
         <v>4625</v>
       </c>
       <c r="G5">
-        <v>2312</v>
+        <v>2312.5</v>
       </c>
       <c r="H5" s="2">
         <v>43099</v>
@@ -714,7 +714,7 @@
         <v>1345</v>
       </c>
       <c r="G9">
-        <v>672</v>
+        <v>672.5</v>
       </c>
       <c r="H9" s="2">
         <v>43098</v>
@@ -778,7 +778,7 @@
         <v>605</v>
       </c>
       <c r="G11">
-        <v>302</v>
+        <v>302.5</v>
       </c>
       <c r="H11" s="2">
         <v>43097</v>
@@ -810,7 +810,7 @@
         <v>1865</v>
       </c>
       <c r="G12">
-        <v>932</v>
+        <v>932.5</v>
       </c>
       <c r="H12" s="2">
         <v>43096</v>
@@ -874,7 +874,7 @@
         <v>685</v>
       </c>
       <c r="G14">
-        <v>342</v>
+        <v>342.5</v>
       </c>
       <c r="H14" s="2">
         <v>43096</v>
@@ -938,7 +938,7 @@
         <v>2705</v>
       </c>
       <c r="G16">
-        <v>1352</v>
+        <v>1352.5</v>
       </c>
       <c r="H16" s="2">
         <v>43096</v>
@@ -1034,7 +1034,7 @@
         <v>3235</v>
       </c>
       <c r="G19">
-        <v>1617</v>
+        <v>1617.5</v>
       </c>
       <c r="H19" s="2">
         <v>43095</v>
@@ -1098,7 +1098,7 @@
         <v>4535</v>
       </c>
       <c r="G21">
-        <v>2267</v>
+        <v>2267.5</v>
       </c>
       <c r="H21" s="2">
         <v>43095</v>
@@ -1130,7 +1130,7 @@
         <v>2145</v>
       </c>
       <c r="G22">
-        <v>1072</v>
+        <v>1072.5</v>
       </c>
       <c r="H22" s="2">
         <v>43095</v>
@@ -1162,7 +1162,7 @@
         <v>3225</v>
       </c>
       <c r="G23">
-        <v>1612</v>
+        <v>1612.5</v>
       </c>
       <c r="H23" s="2">
         <v>43095</v>
@@ -1226,7 +1226,7 @@
         <v>4235</v>
       </c>
       <c r="G25">
-        <v>2117</v>
+        <v>2117.5</v>
       </c>
       <c r="H25" s="2">
         <v>43093</v>
@@ -1258,7 +1258,7 @@
         <v>4405</v>
       </c>
       <c r="G26">
-        <v>2202</v>
+        <v>2202.5</v>
       </c>
       <c r="H26" s="2">
         <v>43092</v>
@@ -1290,7 +1290,7 @@
         <v>915</v>
       </c>
       <c r="G27">
-        <v>457</v>
+        <v>457.5</v>
       </c>
       <c r="H27" s="2">
         <v>43092</v>
@@ -1354,7 +1354,7 @@
         <v>4525</v>
       </c>
       <c r="G29">
-        <v>2262</v>
+        <v>2262.5</v>
       </c>
       <c r="H29" s="2">
         <v>43091</v>
@@ -1450,7 +1450,7 @@
         <v>755</v>
       </c>
       <c r="G32">
-        <v>377</v>
+        <v>377.5</v>
       </c>
       <c r="H32" s="2">
         <v>43088</v>
@@ -1482,7 +1482,7 @@
         <v>1445</v>
       </c>
       <c r="G33">
-        <v>722</v>
+        <v>722.5</v>
       </c>
       <c r="H33" s="2">
         <v>43090</v>
@@ -1578,7 +1578,7 @@
         <v>545</v>
       </c>
       <c r="G36">
-        <v>272</v>
+        <v>272.5</v>
       </c>
       <c r="H36" s="2">
         <v>43088</v>
@@ -1610,7 +1610,7 @@
         <v>4395</v>
       </c>
       <c r="G37">
-        <v>2197</v>
+        <v>2197.5</v>
       </c>
       <c r="H37" s="2">
         <v>43087</v>
@@ -1642,7 +1642,7 @@
         <v>835</v>
       </c>
       <c r="G38">
-        <v>417</v>
+        <v>417.5</v>
       </c>
       <c r="H38" s="2">
         <v>43087</v>
@@ -1738,7 +1738,7 @@
         <v>4595</v>
       </c>
       <c r="G41">
-        <v>2297</v>
+        <v>2297.5</v>
       </c>
       <c r="H41" s="2">
         <v>43084</v>
@@ -1802,7 +1802,7 @@
         <v>4385</v>
       </c>
       <c r="G43">
-        <v>2192</v>
+        <v>2192.5</v>
       </c>
       <c r="H43" s="2">
         <v>43083</v>
@@ -1834,7 +1834,7 @@
         <v>325</v>
       </c>
       <c r="G44">
-        <v>162</v>
+        <v>162.5</v>
       </c>
       <c r="H44" s="2">
         <v>43084</v>
@@ -1898,7 +1898,7 @@
         <v>3245</v>
       </c>
       <c r="G46">
-        <v>1622</v>
+        <v>1622.5</v>
       </c>
       <c r="H46" s="2">
         <v>43082</v>
@@ -2058,7 +2058,7 @@
         <v>4055</v>
       </c>
       <c r="G51">
-        <v>2027</v>
+        <v>2027.5</v>
       </c>
       <c r="H51" s="2">
         <v>43080</v>
@@ -2090,7 +2090,7 @@
         <v>1645</v>
       </c>
       <c r="G52">
-        <v>822</v>
+        <v>822.5</v>
       </c>
       <c r="H52" s="2">
         <v>43079</v>
@@ -2218,7 +2218,7 @@
         <v>1455</v>
       </c>
       <c r="G56">
-        <v>727</v>
+        <v>727.5</v>
       </c>
       <c r="H56" s="2">
         <v>43078</v>
@@ -2282,7 +2282,7 @@
         <v>995</v>
       </c>
       <c r="G58">
-        <v>497</v>
+        <v>497.5</v>
       </c>
       <c r="H58" s="2">
         <v>43077</v>
@@ -2378,7 +2378,7 @@
         <v>1855</v>
       </c>
       <c r="G61">
-        <v>927</v>
+        <v>927.5</v>
       </c>
       <c r="H61" s="2">
         <v>43073</v>
@@ -2474,7 +2474,7 @@
         <v>1415</v>
       </c>
       <c r="G64">
-        <v>707</v>
+        <v>707.5</v>
       </c>
       <c r="H64" s="2">
         <v>43073</v>
@@ -2506,7 +2506,7 @@
         <v>4005</v>
       </c>
       <c r="G65">
-        <v>2002</v>
+        <v>2002.5</v>
       </c>
       <c r="H65" s="2">
         <v>43071</v>
@@ -2570,7 +2570,7 @@
         <v>4335</v>
       </c>
       <c r="G67">
-        <v>2167</v>
+        <v>2167.5</v>
       </c>
       <c r="H67" s="2">
         <v>43070</v>
@@ -2634,7 +2634,7 @@
         <v>1935</v>
       </c>
       <c r="G69">
-        <v>967</v>
+        <v>967.5</v>
       </c>
       <c r="H69" s="2">
         <v>43071</v>
@@ -2730,7 +2730,7 @@
         <v>905</v>
       </c>
       <c r="G72">
-        <v>452</v>
+        <v>452.5</v>
       </c>
       <c r="H72" s="2">
         <v>43070</v>
@@ -2858,7 +2858,7 @@
         <v>4765</v>
       </c>
       <c r="G76">
-        <v>2382</v>
+        <v>2382.5</v>
       </c>
       <c r="H76" s="2">
         <v>43067</v>
@@ -2922,7 +2922,7 @@
         <v>535</v>
       </c>
       <c r="G78">
-        <v>267</v>
+        <v>267.5</v>
       </c>
       <c r="H78" s="2">
         <v>43068</v>
@@ -3018,7 +3018,7 @@
         <v>715</v>
       </c>
       <c r="G81">
-        <v>357</v>
+        <v>357.5</v>
       </c>
       <c r="H81" s="2">
         <v>43067</v>
@@ -3050,7 +3050,7 @@
         <v>1905</v>
       </c>
       <c r="G82">
-        <v>952</v>
+        <v>952.5</v>
       </c>
       <c r="H82" s="2">
         <v>43066</v>
@@ -3082,7 +3082,7 @@
         <v>2945</v>
       </c>
       <c r="G83">
-        <v>1472</v>
+        <v>1472.5</v>
       </c>
       <c r="H83" s="2">
         <v>43064</v>
@@ -3114,7 +3114,7 @@
         <v>3395</v>
       </c>
       <c r="G84">
-        <v>1697</v>
+        <v>1697.5</v>
       </c>
       <c r="H84" s="2">
         <v>43064</v>
@@ -3210,7 +3210,7 @@
         <v>2055</v>
       </c>
       <c r="G87">
-        <v>1027</v>
+        <v>1027.5</v>
       </c>
       <c r="H87" s="2">
         <v>43065</v>
@@ -3306,7 +3306,7 @@
         <v>2535</v>
       </c>
       <c r="G90">
-        <v>1267</v>
+        <v>1267.5</v>
       </c>
       <c r="H90" s="2">
         <v>43062</v>
@@ -3338,7 +3338,7 @@
         <v>945</v>
       </c>
       <c r="G91">
-        <v>472</v>
+        <v>472.5</v>
       </c>
       <c r="H91" s="2">
         <v>43061</v>
@@ -3370,7 +3370,7 @@
         <v>1395</v>
       </c>
       <c r="G92">
-        <v>697</v>
+        <v>697.5</v>
       </c>
       <c r="H92" s="2">
         <v>43061</v>
@@ -3402,7 +3402,7 @@
         <v>4325</v>
       </c>
       <c r="G93">
-        <v>2162</v>
+        <v>2162.5</v>
       </c>
       <c r="H93" s="2">
         <v>43060</v>
@@ -3434,7 +3434,7 @@
         <v>3315</v>
       </c>
       <c r="G94">
-        <v>1657</v>
+        <v>1657.5</v>
       </c>
       <c r="H94" s="2">
         <v>43062</v>
@@ -3530,7 +3530,7 @@
         <v>915</v>
       </c>
       <c r="G97">
-        <v>457</v>
+        <v>457.5</v>
       </c>
       <c r="H97" s="2">
         <v>43059</v>
@@ -3690,7 +3690,7 @@
         <v>2235</v>
       </c>
       <c r="G102">
-        <v>1117</v>
+        <v>1117.5</v>
       </c>
       <c r="H102" s="2">
         <v>43060</v>
@@ -3754,7 +3754,7 @@
         <v>345</v>
       </c>
       <c r="G104">
-        <v>172</v>
+        <v>172.5</v>
       </c>
       <c r="H104" s="2">
         <v>43058</v>
@@ -3786,7 +3786,7 @@
         <v>2845</v>
       </c>
       <c r="G105">
-        <v>1422</v>
+        <v>1422.5</v>
       </c>
       <c r="H105" s="2">
         <v>43057</v>
@@ -3818,7 +3818,7 @@
         <v>2005</v>
       </c>
       <c r="G106">
-        <v>1002</v>
+        <v>1002.5</v>
       </c>
       <c r="H106" s="2">
         <v>43059</v>
@@ -4074,7 +4074,7 @@
         <v>2345</v>
       </c>
       <c r="G114">
-        <v>1172</v>
+        <v>1172.5</v>
       </c>
       <c r="H114" s="2">
         <v>43056</v>
@@ -4170,7 +4170,7 @@
         <v>2915</v>
       </c>
       <c r="G117">
-        <v>1457</v>
+        <v>1457.5</v>
       </c>
       <c r="H117" s="2">
         <v>43052</v>
@@ -4234,7 +4234,7 @@
         <v>2455</v>
       </c>
       <c r="G119">
-        <v>1227</v>
+        <v>1227.5</v>
       </c>
       <c r="H119" s="2">
         <v>43051</v>
@@ -4266,7 +4266,7 @@
         <v>4645</v>
       </c>
       <c r="G120">
-        <v>2322</v>
+        <v>2322.5</v>
       </c>
       <c r="H120" s="2">
         <v>43053</v>
@@ -4362,7 +4362,7 @@
         <v>355</v>
       </c>
       <c r="G123">
-        <v>177</v>
+        <v>177.5</v>
       </c>
       <c r="H123" s="2">
         <v>43050</v>
@@ -4394,7 +4394,7 @@
         <v>285</v>
       </c>
       <c r="G124">
-        <v>142</v>
+        <v>142.5</v>
       </c>
       <c r="H124" s="2">
         <v>43050</v>
@@ -4458,7 +4458,7 @@
         <v>4665</v>
       </c>
       <c r="G126">
-        <v>2332</v>
+        <v>2332.5</v>
       </c>
       <c r="H126" s="2">
         <v>43048</v>
@@ -4490,7 +4490,7 @@
         <v>3925</v>
       </c>
       <c r="G127">
-        <v>1962</v>
+        <v>1962.5</v>
       </c>
       <c r="H127" s="2">
         <v>43050</v>
@@ -4522,7 +4522,7 @@
         <v>995</v>
       </c>
       <c r="G128">
-        <v>497</v>
+        <v>497.5</v>
       </c>
       <c r="H128" s="2">
         <v>43050</v>
@@ -4618,7 +4618,7 @@
         <v>3085</v>
       </c>
       <c r="G131">
-        <v>1542</v>
+        <v>1542.5</v>
       </c>
       <c r="H131" s="2">
         <v>43044</v>
@@ -4650,7 +4650,7 @@
         <v>1565</v>
       </c>
       <c r="G132">
-        <v>782</v>
+        <v>782.5</v>
       </c>
       <c r="H132" s="2">
         <v>43046</v>
@@ -4682,7 +4682,7 @@
         <v>4165</v>
       </c>
       <c r="G133">
-        <v>2082</v>
+        <v>2082.5</v>
       </c>
       <c r="H133" s="2">
         <v>43044</v>
@@ -4778,7 +4778,7 @@
         <v>1495</v>
       </c>
       <c r="G136">
-        <v>747</v>
+        <v>747.5</v>
       </c>
       <c r="H136" s="2">
         <v>43041</v>
@@ -4874,7 +4874,7 @@
         <v>3925</v>
       </c>
       <c r="G139">
-        <v>1962</v>
+        <v>1962.5</v>
       </c>
       <c r="H139" s="2">
         <v>43041</v>
@@ -5066,7 +5066,7 @@
         <v>2565</v>
       </c>
       <c r="G145">
-        <v>1282</v>
+        <v>1282.5</v>
       </c>
       <c r="H145" s="2">
         <v>43040</v>
@@ -5098,7 +5098,7 @@
         <v>2865</v>
       </c>
       <c r="G146">
-        <v>1432</v>
+        <v>1432.5</v>
       </c>
       <c r="H146" s="2">
         <v>43039</v>
@@ -5162,7 +5162,7 @@
         <v>255</v>
       </c>
       <c r="G148">
-        <v>127</v>
+        <v>127.5</v>
       </c>
       <c r="H148" s="2">
         <v>43039</v>
@@ -5354,7 +5354,7 @@
         <v>4305</v>
       </c>
       <c r="G154">
-        <v>2152</v>
+        <v>2152.5</v>
       </c>
       <c r="H154" s="2">
         <v>43034</v>
@@ -5418,7 +5418,7 @@
         <v>625</v>
       </c>
       <c r="G156">
-        <v>312</v>
+        <v>312.5</v>
       </c>
       <c r="H156" s="2">
         <v>43033</v>
@@ -5450,7 +5450,7 @@
         <v>2755</v>
       </c>
       <c r="G157">
-        <v>1377</v>
+        <v>1377.5</v>
       </c>
       <c r="H157" s="2">
         <v>43032</v>
@@ -5610,7 +5610,7 @@
         <v>3295</v>
       </c>
       <c r="G162">
-        <v>1647</v>
+        <v>1647.5</v>
       </c>
       <c r="H162" s="2">
         <v>43031</v>
@@ -5674,7 +5674,7 @@
         <v>4325</v>
       </c>
       <c r="G164">
-        <v>2162</v>
+        <v>2162.5</v>
       </c>
       <c r="H164" s="2">
         <v>43028</v>
@@ -5834,7 +5834,7 @@
         <v>3795</v>
       </c>
       <c r="G169">
-        <v>1897</v>
+        <v>1897.5</v>
       </c>
       <c r="H169" s="2">
         <v>43027</v>
@@ -5962,7 +5962,7 @@
         <v>4185</v>
       </c>
       <c r="G173">
-        <v>2092</v>
+        <v>2092.5</v>
       </c>
       <c r="H173" s="2">
         <v>43024</v>
@@ -5994,7 +5994,7 @@
         <v>3245</v>
       </c>
       <c r="G174">
-        <v>1622</v>
+        <v>1622.5</v>
       </c>
       <c r="H174" s="2">
         <v>43022</v>
@@ -6058,7 +6058,7 @@
         <v>3585</v>
       </c>
       <c r="G176">
-        <v>1792</v>
+        <v>1792.5</v>
       </c>
       <c r="H176" s="2">
         <v>43021</v>
@@ -6186,7 +6186,7 @@
         <v>2595</v>
       </c>
       <c r="G180">
-        <v>1297</v>
+        <v>1297.5</v>
       </c>
       <c r="H180" s="2">
         <v>43021</v>
@@ -6250,7 +6250,7 @@
         <v>2445</v>
       </c>
       <c r="G182">
-        <v>1222</v>
+        <v>1222.5</v>
       </c>
       <c r="H182" s="2">
         <v>43020</v>
@@ -6314,7 +6314,7 @@
         <v>4825</v>
       </c>
       <c r="G184">
-        <v>2412</v>
+        <v>2412.5</v>
       </c>
       <c r="H184" s="2">
         <v>43019</v>
@@ -6346,7 +6346,7 @@
         <v>875</v>
       </c>
       <c r="G185">
-        <v>437</v>
+        <v>437.5</v>
       </c>
       <c r="H185" s="2">
         <v>43019</v>
@@ -6378,7 +6378,7 @@
         <v>3835</v>
       </c>
       <c r="G186">
-        <v>1917</v>
+        <v>1917.5</v>
       </c>
       <c r="H186" s="2">
         <v>43021</v>
@@ -6442,7 +6442,7 @@
         <v>4055</v>
       </c>
       <c r="G188">
-        <v>2027</v>
+        <v>2027.5</v>
       </c>
       <c r="H188" s="2">
         <v>43018</v>
@@ -6474,7 +6474,7 @@
         <v>2685</v>
       </c>
       <c r="G189">
-        <v>1342</v>
+        <v>1342.5</v>
       </c>
       <c r="H189" s="2">
         <v>43018</v>
@@ -6602,7 +6602,7 @@
         <v>4405</v>
       </c>
       <c r="G193">
-        <v>2202</v>
+        <v>2202.5</v>
       </c>
       <c r="H193" s="2">
         <v>43017</v>
@@ -6666,7 +6666,7 @@
         <v>2545</v>
       </c>
       <c r="G195">
-        <v>1272</v>
+        <v>1272.5</v>
       </c>
       <c r="H195" s="2">
         <v>43016</v>
@@ -6698,7 +6698,7 @@
         <v>765</v>
       </c>
       <c r="G196">
-        <v>382</v>
+        <v>382.5</v>
       </c>
       <c r="H196" s="2">
         <v>43018</v>
@@ -6730,7 +6730,7 @@
         <v>1115</v>
       </c>
       <c r="G197">
-        <v>557</v>
+        <v>557.5</v>
       </c>
       <c r="H197" s="2">
         <v>43016</v>
@@ -6762,7 +6762,7 @@
         <v>1975</v>
       </c>
       <c r="G198">
-        <v>987</v>
+        <v>987.5</v>
       </c>
       <c r="H198" s="2">
         <v>43016</v>
@@ -6826,7 +6826,7 @@
         <v>3165</v>
       </c>
       <c r="G200">
-        <v>1582</v>
+        <v>1582.5</v>
       </c>
       <c r="H200" s="2">
         <v>43017</v>
@@ -6858,7 +6858,7 @@
         <v>765</v>
       </c>
       <c r="G201">
-        <v>382</v>
+        <v>382.5</v>
       </c>
       <c r="H201" s="2">
         <v>43017</v>
@@ -6890,7 +6890,7 @@
         <v>1295</v>
       </c>
       <c r="G202">
-        <v>647</v>
+        <v>647.5</v>
       </c>
       <c r="H202" s="2">
         <v>43015</v>
@@ -6922,7 +6922,7 @@
         <v>4375</v>
       </c>
       <c r="G203">
-        <v>2187</v>
+        <v>2187.5</v>
       </c>
       <c r="H203" s="2">
         <v>43014</v>
@@ -6954,7 +6954,7 @@
         <v>4205</v>
       </c>
       <c r="G204">
-        <v>2102</v>
+        <v>2102.5</v>
       </c>
       <c r="H204" s="2">
         <v>43015</v>
@@ -7018,7 +7018,7 @@
         <v>275</v>
       </c>
       <c r="G206">
-        <v>137</v>
+        <v>137.5</v>
       </c>
       <c r="H206" s="2">
         <v>43013</v>
@@ -7050,7 +7050,7 @@
         <v>4335</v>
       </c>
       <c r="G207">
-        <v>2167</v>
+        <v>2167.5</v>
       </c>
       <c r="H207" s="2">
         <v>43012</v>
@@ -7114,7 +7114,7 @@
         <v>275</v>
       </c>
       <c r="G209">
-        <v>137</v>
+        <v>137.5</v>
       </c>
       <c r="H209" s="2">
         <v>43010</v>
@@ -7146,7 +7146,7 @@
         <v>2615</v>
       </c>
       <c r="G210">
-        <v>1307</v>
+        <v>1307.5</v>
       </c>
       <c r="H210" s="2">
         <v>43012</v>
@@ -7210,7 +7210,7 @@
         <v>1565</v>
       </c>
       <c r="G212">
-        <v>782</v>
+        <v>782.5</v>
       </c>
       <c r="H212" s="2">
         <v>43009</v>
@@ -7306,7 +7306,7 @@
         <v>1175</v>
       </c>
       <c r="G215">
-        <v>587</v>
+        <v>587.5</v>
       </c>
       <c r="H215" s="2">
         <v>43010</v>
@@ -7338,7 +7338,7 @@
         <v>3375</v>
       </c>
       <c r="G216">
-        <v>1687</v>
+        <v>1687.5</v>
       </c>
       <c r="H216" s="2">
         <v>43008</v>
@@ -7402,7 +7402,7 @@
         <v>4935</v>
       </c>
       <c r="G218">
-        <v>2467</v>
+        <v>2467.5</v>
       </c>
       <c r="H218" s="2">
         <v>43009</v>
@@ -7466,7 +7466,7 @@
         <v>3735</v>
       </c>
       <c r="G220">
-        <v>1867</v>
+        <v>1867.5</v>
       </c>
       <c r="H220" s="2">
         <v>43006</v>
@@ -7498,7 +7498,7 @@
         <v>265</v>
       </c>
       <c r="G221">
-        <v>132</v>
+        <v>132.5</v>
       </c>
       <c r="H221" s="2">
         <v>43005</v>
@@ -7530,7 +7530,7 @@
         <v>4285</v>
       </c>
       <c r="G222">
-        <v>2142</v>
+        <v>2142.5</v>
       </c>
       <c r="H222" s="2">
         <v>43005</v>
@@ -7562,7 +7562,7 @@
         <v>1275</v>
       </c>
       <c r="G223">
-        <v>637</v>
+        <v>637.5</v>
       </c>
       <c r="H223" s="2">
         <v>43004</v>
@@ -7594,7 +7594,7 @@
         <v>1375</v>
       </c>
       <c r="G224">
-        <v>687</v>
+        <v>687.5</v>
       </c>
       <c r="H224" s="2">
         <v>43007</v>
@@ -7626,7 +7626,7 @@
         <v>1135</v>
       </c>
       <c r="G225">
-        <v>567</v>
+        <v>567.5</v>
       </c>
       <c r="H225" s="2">
         <v>43005</v>
@@ -7690,7 +7690,7 @@
         <v>1775</v>
       </c>
       <c r="G227">
-        <v>887</v>
+        <v>887.5</v>
       </c>
       <c r="H227" s="2">
         <v>43004</v>
@@ -7786,7 +7786,7 @@
         <v>4165</v>
       </c>
       <c r="G230">
-        <v>2082</v>
+        <v>2082.5</v>
       </c>
       <c r="H230" s="2">
         <v>43002</v>
@@ -7914,7 +7914,7 @@
         <v>2355</v>
       </c>
       <c r="G234">
-        <v>1177</v>
+        <v>1177.5</v>
       </c>
       <c r="H234" s="2">
         <v>43004</v>
@@ -7946,7 +7946,7 @@
         <v>4095</v>
       </c>
       <c r="G235">
-        <v>2047</v>
+        <v>2047.5</v>
       </c>
       <c r="H235" s="2">
         <v>43003</v>
@@ -7978,7 +7978,7 @@
         <v>1455</v>
       </c>
       <c r="G236">
-        <v>727</v>
+        <v>727.5</v>
       </c>
       <c r="H236" s="2">
         <v>43003</v>
@@ -8010,7 +8010,7 @@
         <v>3215</v>
       </c>
       <c r="G237">
-        <v>1607</v>
+        <v>1607.5</v>
       </c>
       <c r="H237" s="2">
         <v>43002</v>
@@ -8042,7 +8042,7 @@
         <v>965</v>
       </c>
       <c r="G238">
-        <v>482</v>
+        <v>482.5</v>
       </c>
       <c r="H238" s="2">
         <v>43000</v>
@@ -8106,7 +8106,7 @@
         <v>1475</v>
       </c>
       <c r="G240">
-        <v>737</v>
+        <v>737.5</v>
       </c>
       <c r="H240" s="2">
         <v>42999</v>
@@ -8138,7 +8138,7 @@
         <v>4045</v>
       </c>
       <c r="G241">
-        <v>2022</v>
+        <v>2022.5</v>
       </c>
       <c r="H241" s="2">
         <v>42999</v>
@@ -8170,7 +8170,7 @@
         <v>2585</v>
       </c>
       <c r="G242">
-        <v>1292</v>
+        <v>1292.5</v>
       </c>
       <c r="H242" s="2">
         <v>42999</v>
@@ -8202,7 +8202,7 @@
         <v>3425</v>
       </c>
       <c r="G243">
-        <v>1712</v>
+        <v>1712.5</v>
       </c>
       <c r="H243" s="2">
         <v>42998</v>
@@ -8234,7 +8234,7 @@
         <v>2455</v>
       </c>
       <c r="G244">
-        <v>1227</v>
+        <v>1227.5</v>
       </c>
       <c r="H244" s="2">
         <v>43001</v>
@@ -8266,7 +8266,7 @@
         <v>4025</v>
       </c>
       <c r="G245">
-        <v>2012</v>
+        <v>2012.5</v>
       </c>
       <c r="H245" s="2">
         <v>43000</v>
@@ -8298,7 +8298,7 @@
         <v>4385</v>
       </c>
       <c r="G246">
-        <v>2192</v>
+        <v>2192.5</v>
       </c>
       <c r="H246" s="2">
         <v>42997</v>
@@ -8330,7 +8330,7 @@
         <v>2445</v>
       </c>
       <c r="G247">
-        <v>1222</v>
+        <v>1222.5</v>
       </c>
       <c r="H247" s="2">
         <v>42999</v>
@@ -8362,7 +8362,7 @@
         <v>1855</v>
       </c>
       <c r="G248">
-        <v>927</v>
+        <v>927.5</v>
       </c>
       <c r="H248" s="2">
         <v>42999</v>
@@ -8394,7 +8394,7 @@
         <v>585</v>
       </c>
       <c r="G249">
-        <v>292</v>
+        <v>292.5</v>
       </c>
       <c r="H249" s="2">
         <v>42998</v>
@@ -8426,7 +8426,7 @@
         <v>3405</v>
       </c>
       <c r="G250">
-        <v>1702</v>
+        <v>1702.5</v>
       </c>
       <c r="H250" s="2">
         <v>42995</v>
@@ -8458,7 +8458,7 @@
         <v>4495</v>
       </c>
       <c r="G251">
-        <v>2247</v>
+        <v>2247.5</v>
       </c>
       <c r="H251" s="2">
         <v>42995</v>
@@ -8522,7 +8522,7 @@
         <v>2185</v>
       </c>
       <c r="G253">
-        <v>1092</v>
+        <v>1092.5</v>
       </c>
       <c r="H253" s="2">
         <v>42994</v>
@@ -8586,7 +8586,7 @@
         <v>4305</v>
       </c>
       <c r="G255">
-        <v>2152</v>
+        <v>2152.5</v>
       </c>
       <c r="H255" s="2">
         <v>42995</v>
@@ -8618,7 +8618,7 @@
         <v>3155</v>
       </c>
       <c r="G256">
-        <v>1577</v>
+        <v>1577.5</v>
       </c>
       <c r="H256" s="2">
         <v>42992</v>
@@ -8650,7 +8650,7 @@
         <v>4095</v>
       </c>
       <c r="G257">
-        <v>2047</v>
+        <v>2047.5</v>
       </c>
       <c r="H257" s="2">
         <v>42992</v>
@@ -8682,7 +8682,7 @@
         <v>1345</v>
       </c>
       <c r="G258">
-        <v>672</v>
+        <v>672.5</v>
       </c>
       <c r="H258" s="2">
         <v>42992</v>
@@ -8746,7 +8746,7 @@
         <v>995</v>
       </c>
       <c r="G260">
-        <v>497</v>
+        <v>497.5</v>
       </c>
       <c r="H260" s="2">
         <v>42991</v>
@@ -8778,7 +8778,7 @@
         <v>4835</v>
       </c>
       <c r="G261">
-        <v>2417</v>
+        <v>2417.5</v>
       </c>
       <c r="H261" s="2">
         <v>42993</v>
@@ -9162,7 +9162,7 @@
         <v>4555</v>
       </c>
       <c r="G273">
-        <v>2277</v>
+        <v>2277.5</v>
       </c>
       <c r="H273" s="2">
         <v>42987</v>
@@ -9194,7 +9194,7 @@
         <v>2555</v>
       </c>
       <c r="G274">
-        <v>1277</v>
+        <v>1277.5</v>
       </c>
       <c r="H274" s="2">
         <v>42986</v>
@@ -9226,7 +9226,7 @@
         <v>2785</v>
       </c>
       <c r="G275">
-        <v>1392</v>
+        <v>1392.5</v>
       </c>
       <c r="H275" s="2">
         <v>42986</v>
@@ -9258,7 +9258,7 @@
         <v>4035</v>
       </c>
       <c r="G276">
-        <v>2017</v>
+        <v>2017.5</v>
       </c>
       <c r="H276" s="2">
         <v>42987</v>
@@ -9290,7 +9290,7 @@
         <v>3935</v>
       </c>
       <c r="G277">
-        <v>1967</v>
+        <v>1967.5</v>
       </c>
       <c r="H277" s="2">
         <v>42983</v>
@@ -9322,7 +9322,7 @@
         <v>3755</v>
       </c>
       <c r="G278">
-        <v>1877</v>
+        <v>1877.5</v>
       </c>
       <c r="H278" s="2">
         <v>42985</v>
@@ -9418,7 +9418,7 @@
         <v>2395</v>
       </c>
       <c r="G281">
-        <v>1197</v>
+        <v>1197.5</v>
       </c>
       <c r="H281" s="2">
         <v>42984</v>
@@ -9450,7 +9450,7 @@
         <v>3375</v>
       </c>
       <c r="G282">
-        <v>1687</v>
+        <v>1687.5</v>
       </c>
       <c r="H282" s="2">
         <v>42982</v>
@@ -9514,7 +9514,7 @@
         <v>1555</v>
       </c>
       <c r="G284">
-        <v>777</v>
+        <v>777.5</v>
       </c>
       <c r="H284" s="2">
         <v>42984</v>
@@ -9546,7 +9546,7 @@
         <v>3565</v>
       </c>
       <c r="G285">
-        <v>1782</v>
+        <v>1782.5</v>
       </c>
       <c r="H285" s="2">
         <v>42981</v>
@@ -9610,7 +9610,7 @@
         <v>1855</v>
       </c>
       <c r="G287">
-        <v>927</v>
+        <v>927.5</v>
       </c>
       <c r="H287" s="2">
         <v>42979</v>
@@ -9706,7 +9706,7 @@
         <v>2305</v>
       </c>
       <c r="G290">
-        <v>1152</v>
+        <v>1152.5</v>
       </c>
       <c r="H290" s="2">
         <v>42977</v>
@@ -9834,7 +9834,7 @@
         <v>4875</v>
       </c>
       <c r="G294">
-        <v>2437</v>
+        <v>2437.5</v>
       </c>
       <c r="H294" s="2">
         <v>42975</v>
@@ -9866,7 +9866,7 @@
         <v>1655</v>
       </c>
       <c r="G295">
-        <v>827</v>
+        <v>827.5</v>
       </c>
       <c r="H295" s="2">
         <v>42975</v>
@@ -9898,7 +9898,7 @@
         <v>895</v>
       </c>
       <c r="G296">
-        <v>447</v>
+        <v>447.5</v>
       </c>
       <c r="H296" s="2">
         <v>42975</v>
@@ -10026,7 +10026,7 @@
         <v>335</v>
       </c>
       <c r="G300">
-        <v>167</v>
+        <v>167.5</v>
       </c>
       <c r="H300" s="2">
         <v>42970</v>
@@ -10154,7 +10154,7 @@
         <v>3525</v>
       </c>
       <c r="G304">
-        <v>1762</v>
+        <v>1762.5</v>
       </c>
       <c r="H304" s="2">
         <v>42970</v>
@@ -10218,7 +10218,7 @@
         <v>3585</v>
       </c>
       <c r="G306">
-        <v>1792</v>
+        <v>1792.5</v>
       </c>
       <c r="H306" s="2">
         <v>42969</v>
@@ -10250,7 +10250,7 @@
         <v>4065</v>
       </c>
       <c r="G307">
-        <v>2032</v>
+        <v>2032.5</v>
       </c>
       <c r="H307" s="2">
         <v>42967</v>
@@ -10378,7 +10378,7 @@
         <v>3115</v>
       </c>
       <c r="G311">
-        <v>1557</v>
+        <v>1557.5</v>
       </c>
       <c r="H311" s="2">
         <v>42965</v>
@@ -10410,7 +10410,7 @@
         <v>4655</v>
       </c>
       <c r="G312">
-        <v>2327</v>
+        <v>2327.5</v>
       </c>
       <c r="H312" s="2">
         <v>42965</v>
@@ -10442,7 +10442,7 @@
         <v>3955</v>
       </c>
       <c r="G313">
-        <v>1977</v>
+        <v>1977.5</v>
       </c>
       <c r="H313" s="2">
         <v>42967</v>
@@ -10474,7 +10474,7 @@
         <v>4745</v>
       </c>
       <c r="G314">
-        <v>2372</v>
+        <v>2372.5</v>
       </c>
       <c r="H314" s="2">
         <v>42967</v>
@@ -10570,7 +10570,7 @@
         <v>3525</v>
       </c>
       <c r="G317">
-        <v>1762</v>
+        <v>1762.5</v>
       </c>
       <c r="H317" s="2">
         <v>42964</v>
@@ -10634,7 +10634,7 @@
         <v>415</v>
       </c>
       <c r="G319">
-        <v>207</v>
+        <v>207.5</v>
       </c>
       <c r="H319" s="2">
         <v>42965</v>
@@ -10698,7 +10698,7 @@
         <v>3485</v>
       </c>
       <c r="G321">
-        <v>1742</v>
+        <v>1742.5</v>
       </c>
       <c r="H321" s="2">
         <v>42963</v>
@@ -10826,7 +10826,7 @@
         <v>1395</v>
       </c>
       <c r="G325">
-        <v>697</v>
+        <v>697.5</v>
       </c>
       <c r="H325" s="2">
         <v>42960</v>
@@ -10890,7 +10890,7 @@
         <v>1815</v>
       </c>
       <c r="G327">
-        <v>907</v>
+        <v>907.5</v>
       </c>
       <c r="H327" s="2">
         <v>42958</v>
@@ -10922,7 +10922,7 @@
         <v>4835</v>
       </c>
       <c r="G328">
-        <v>2417</v>
+        <v>2417.5</v>
       </c>
       <c r="H328" s="2">
         <v>42958</v>
@@ -10954,7 +10954,7 @@
         <v>875</v>
       </c>
       <c r="G329">
-        <v>437</v>
+        <v>437.5</v>
       </c>
       <c r="H329" s="2">
         <v>42960</v>
@@ -10986,7 +10986,7 @@
         <v>3995</v>
       </c>
       <c r="G330">
-        <v>1997</v>
+        <v>1997.5</v>
       </c>
       <c r="H330" s="2">
         <v>42958</v>
@@ -11018,7 +11018,7 @@
         <v>4015</v>
       </c>
       <c r="G331">
-        <v>2007</v>
+        <v>2007.5</v>
       </c>
       <c r="H331" s="2">
         <v>42959</v>
@@ -11050,7 +11050,7 @@
         <v>3685</v>
       </c>
       <c r="G332">
-        <v>1842</v>
+        <v>1842.5</v>
       </c>
       <c r="H332" s="2">
         <v>42959</v>
@@ -11082,7 +11082,7 @@
         <v>2875</v>
       </c>
       <c r="G333">
-        <v>1437</v>
+        <v>1437.5</v>
       </c>
       <c r="H333" s="2">
         <v>42959</v>
@@ -11114,7 +11114,7 @@
         <v>2755</v>
       </c>
       <c r="G334">
-        <v>1377</v>
+        <v>1377.5</v>
       </c>
       <c r="H334" s="2">
         <v>42956</v>
@@ -11146,7 +11146,7 @@
         <v>4825</v>
       </c>
       <c r="G335">
-        <v>2412</v>
+        <v>2412.5</v>
       </c>
       <c r="H335" s="2">
         <v>42956</v>
@@ -11210,7 +11210,7 @@
         <v>455</v>
       </c>
       <c r="G337">
-        <v>227</v>
+        <v>227.5</v>
       </c>
       <c r="H337" s="2">
         <v>42958</v>
@@ -11242,7 +11242,7 @@
         <v>3715</v>
       </c>
       <c r="G338">
-        <v>1857</v>
+        <v>1857.5</v>
       </c>
       <c r="H338" s="2">
         <v>42957</v>
@@ -11338,7 +11338,7 @@
         <v>2255</v>
       </c>
       <c r="G341">
-        <v>1127</v>
+        <v>1127.5</v>
       </c>
       <c r="H341" s="2">
         <v>42955</v>
@@ -11370,7 +11370,7 @@
         <v>1125</v>
       </c>
       <c r="G342">
-        <v>562</v>
+        <v>562.5</v>
       </c>
       <c r="H342" s="2">
         <v>42955</v>
@@ -11402,7 +11402,7 @@
         <v>4925</v>
       </c>
       <c r="G343">
-        <v>2462</v>
+        <v>2462.5</v>
       </c>
       <c r="H343" s="2">
         <v>42954</v>
@@ -11466,7 +11466,7 @@
         <v>4625</v>
       </c>
       <c r="G345">
-        <v>2312</v>
+        <v>2312.5</v>
       </c>
       <c r="H345" s="2">
         <v>42952</v>
@@ -11562,7 +11562,7 @@
         <v>4975</v>
       </c>
       <c r="G348">
-        <v>2487</v>
+        <v>2487.5</v>
       </c>
       <c r="H348" s="2">
         <v>42953</v>
@@ -11594,7 +11594,7 @@
         <v>1855</v>
       </c>
       <c r="G349">
-        <v>927</v>
+        <v>927.5</v>
       </c>
       <c r="H349" s="2">
         <v>42951</v>
@@ -11658,7 +11658,7 @@
         <v>1245</v>
       </c>
       <c r="G351">
-        <v>622</v>
+        <v>622.5</v>
       </c>
       <c r="H351" s="2">
         <v>42952</v>
@@ -11722,7 +11722,7 @@
         <v>3605</v>
       </c>
       <c r="G353">
-        <v>1802</v>
+        <v>1802.5</v>
       </c>
       <c r="H353" s="2">
         <v>42950</v>
@@ -11754,7 +11754,7 @@
         <v>1155</v>
       </c>
       <c r="G354">
-        <v>577</v>
+        <v>577.5</v>
       </c>
       <c r="H354" s="2">
         <v>42949</v>
@@ -11786,7 +11786,7 @@
         <v>4535</v>
       </c>
       <c r="G355">
-        <v>2267</v>
+        <v>2267.5</v>
       </c>
       <c r="H355" s="2">
         <v>42951</v>
@@ -12010,7 +12010,7 @@
         <v>2195</v>
       </c>
       <c r="G362">
-        <v>1097</v>
+        <v>1097.5</v>
       </c>
       <c r="H362" s="2">
         <v>42947</v>
@@ -12074,7 +12074,7 @@
         <v>2635</v>
       </c>
       <c r="G364">
-        <v>1317</v>
+        <v>1317.5</v>
       </c>
       <c r="H364" s="2">
         <v>42946</v>
@@ -12106,7 +12106,7 @@
         <v>3485</v>
       </c>
       <c r="G365">
-        <v>1742</v>
+        <v>1742.5</v>
       </c>
       <c r="H365" s="2">
         <v>42948</v>
@@ -12138,7 +12138,7 @@
         <v>4995</v>
       </c>
       <c r="G366">
-        <v>2497</v>
+        <v>2497.5</v>
       </c>
       <c r="H366" s="2">
         <v>42945</v>
@@ -12266,7 +12266,7 @@
         <v>835</v>
       </c>
       <c r="G370">
-        <v>417</v>
+        <v>417.5</v>
       </c>
       <c r="H370" s="2">
         <v>42944</v>
@@ -12426,7 +12426,7 @@
         <v>1655</v>
       </c>
       <c r="G375">
-        <v>827</v>
+        <v>827.5</v>
       </c>
       <c r="H375" s="2">
         <v>42942</v>
@@ -12522,7 +12522,7 @@
         <v>2485</v>
       </c>
       <c r="G378">
-        <v>1242</v>
+        <v>1242.5</v>
       </c>
       <c r="H378" s="2">
         <v>42939</v>
@@ -12586,7 +12586,7 @@
         <v>1335</v>
       </c>
       <c r="G380">
-        <v>667</v>
+        <v>667.5</v>
       </c>
       <c r="H380" s="2">
         <v>42940</v>
@@ -12618,7 +12618,7 @@
         <v>4415</v>
       </c>
       <c r="G381">
-        <v>2207</v>
+        <v>2207.5</v>
       </c>
       <c r="H381" s="2">
         <v>42938</v>
@@ -12682,7 +12682,7 @@
         <v>2195</v>
       </c>
       <c r="G383">
-        <v>1097</v>
+        <v>1097.5</v>
       </c>
       <c r="H383" s="2">
         <v>42937</v>
@@ -12714,7 +12714,7 @@
         <v>1525</v>
       </c>
       <c r="G384">
-        <v>762</v>
+        <v>762.5</v>
       </c>
       <c r="H384" s="2">
         <v>42937</v>
@@ -12906,7 +12906,7 @@
         <v>1645</v>
       </c>
       <c r="G390">
-        <v>822</v>
+        <v>822.5</v>
       </c>
       <c r="H390" s="2">
         <v>42937</v>
@@ -12938,7 +12938,7 @@
         <v>3965</v>
       </c>
       <c r="G391">
-        <v>1982</v>
+        <v>1982.5</v>
       </c>
       <c r="H391" s="2">
         <v>42937</v>
@@ -12970,7 +12970,7 @@
         <v>3175</v>
       </c>
       <c r="G392">
-        <v>1587</v>
+        <v>1587.5</v>
       </c>
       <c r="H392" s="2">
         <v>42937</v>
@@ -13002,7 +13002,7 @@
         <v>4125</v>
       </c>
       <c r="G393">
-        <v>2062</v>
+        <v>2062.5</v>
       </c>
       <c r="H393" s="2">
         <v>42934</v>
@@ -13066,7 +13066,7 @@
         <v>3865</v>
       </c>
       <c r="G395">
-        <v>1932</v>
+        <v>1932.5</v>
       </c>
       <c r="H395" s="2">
         <v>42936</v>
@@ -13098,7 +13098,7 @@
         <v>2405</v>
       </c>
       <c r="G396">
-        <v>1202</v>
+        <v>1202.5</v>
       </c>
       <c r="H396" s="2">
         <v>42934</v>
@@ -13130,7 +13130,7 @@
         <v>2565</v>
       </c>
       <c r="G397">
-        <v>1282</v>
+        <v>1282.5</v>
       </c>
       <c r="H397" s="2">
         <v>42933</v>
@@ -13290,7 +13290,7 @@
         <v>1315</v>
       </c>
       <c r="G402">
-        <v>657</v>
+        <v>657.5</v>
       </c>
       <c r="H402" s="2">
         <v>42930</v>
@@ -13418,7 +13418,7 @@
         <v>4545</v>
       </c>
       <c r="G406">
-        <v>2272</v>
+        <v>2272.5</v>
       </c>
       <c r="H406" s="2">
         <v>42926</v>
@@ -13450,7 +13450,7 @@
         <v>2475</v>
       </c>
       <c r="G407">
-        <v>1237</v>
+        <v>1237.5</v>
       </c>
       <c r="H407" s="2">
         <v>42925</v>
@@ -13514,7 +13514,7 @@
         <v>985</v>
       </c>
       <c r="G409">
-        <v>492</v>
+        <v>492.5</v>
       </c>
       <c r="H409" s="2">
         <v>42927</v>
@@ -13546,7 +13546,7 @@
         <v>1685</v>
       </c>
       <c r="G410">
-        <v>842</v>
+        <v>842.5</v>
       </c>
       <c r="H410" s="2">
         <v>42925</v>
@@ -13578,7 +13578,7 @@
         <v>1865</v>
       </c>
       <c r="G411">
-        <v>932</v>
+        <v>932.5</v>
       </c>
       <c r="H411" s="2">
         <v>42924</v>
@@ -13610,7 +13610,7 @@
         <v>4655</v>
       </c>
       <c r="G412">
-        <v>2327</v>
+        <v>2327.5</v>
       </c>
       <c r="H412" s="2">
         <v>42925</v>
@@ -13674,7 +13674,7 @@
         <v>2835</v>
       </c>
       <c r="G414">
-        <v>1417</v>
+        <v>1417.5</v>
       </c>
       <c r="H414" s="2">
         <v>42924</v>
@@ -13770,7 +13770,7 @@
         <v>605</v>
       </c>
       <c r="G417">
-        <v>302</v>
+        <v>302.5</v>
       </c>
       <c r="H417" s="2">
         <v>42922</v>
@@ -13802,7 +13802,7 @@
         <v>2725</v>
       </c>
       <c r="G418">
-        <v>1362</v>
+        <v>1362.5</v>
       </c>
       <c r="H418" s="2">
         <v>42921</v>
@@ -13834,7 +13834,7 @@
         <v>2645</v>
       </c>
       <c r="G419">
-        <v>1322</v>
+        <v>1322.5</v>
       </c>
       <c r="H419" s="2">
         <v>42921</v>
@@ -13898,7 +13898,7 @@
         <v>1765</v>
       </c>
       <c r="G421">
-        <v>882</v>
+        <v>882.5</v>
       </c>
       <c r="H421" s="2">
         <v>42921</v>
@@ -13930,7 +13930,7 @@
         <v>1235</v>
       </c>
       <c r="G422">
-        <v>617</v>
+        <v>617.5</v>
       </c>
       <c r="H422" s="2">
         <v>42919</v>
@@ -13962,7 +13962,7 @@
         <v>2195</v>
       </c>
       <c r="G423">
-        <v>1097</v>
+        <v>1097.5</v>
       </c>
       <c r="H423" s="2">
         <v>42919</v>
@@ -13994,7 +13994,7 @@
         <v>3255</v>
       </c>
       <c r="G424">
-        <v>1627</v>
+        <v>1627.5</v>
       </c>
       <c r="H424" s="2">
         <v>42918</v>
@@ -14026,7 +14026,7 @@
         <v>4495</v>
       </c>
       <c r="G425">
-        <v>2247</v>
+        <v>2247.5</v>
       </c>
       <c r="H425" s="2">
         <v>42917</v>
@@ -14122,7 +14122,7 @@
         <v>2395</v>
       </c>
       <c r="G428">
-        <v>1197</v>
+        <v>1197.5</v>
       </c>
       <c r="H428" s="2">
         <v>42917</v>
@@ -14218,7 +14218,7 @@
         <v>3295</v>
       </c>
       <c r="G431">
-        <v>1647</v>
+        <v>1647.5</v>
       </c>
       <c r="H431" s="2">
         <v>42915</v>
@@ -14250,7 +14250,7 @@
         <v>1755</v>
       </c>
       <c r="G432">
-        <v>877</v>
+        <v>877.5</v>
       </c>
       <c r="H432" s="2">
         <v>42915</v>
@@ -14346,7 +14346,7 @@
         <v>1155</v>
       </c>
       <c r="G435">
-        <v>577</v>
+        <v>577.5</v>
       </c>
       <c r="H435" s="2">
         <v>42912</v>
@@ -14474,7 +14474,7 @@
         <v>4795</v>
       </c>
       <c r="G439">
-        <v>2397</v>
+        <v>2397.5</v>
       </c>
       <c r="H439" s="2">
         <v>42912</v>
@@ -14506,7 +14506,7 @@
         <v>1525</v>
       </c>
       <c r="G440">
-        <v>762</v>
+        <v>762.5</v>
       </c>
       <c r="H440" s="2">
         <v>42912</v>
@@ -14538,7 +14538,7 @@
         <v>3885</v>
       </c>
       <c r="G441">
-        <v>1942</v>
+        <v>1942.5</v>
       </c>
       <c r="H441" s="2">
         <v>42910</v>
@@ -14570,7 +14570,7 @@
         <v>4535</v>
       </c>
       <c r="G442">
-        <v>2267</v>
+        <v>2267.5</v>
       </c>
       <c r="H442" s="2">
         <v>42910</v>
@@ -14602,7 +14602,7 @@
         <v>655</v>
       </c>
       <c r="G443">
-        <v>327</v>
+        <v>327.5</v>
       </c>
       <c r="H443" s="2">
         <v>42910</v>
@@ -14634,7 +14634,7 @@
         <v>4855</v>
       </c>
       <c r="G444">
-        <v>2427</v>
+        <v>2427.5</v>
       </c>
       <c r="H444" s="2">
         <v>42909</v>
@@ -14762,7 +14762,7 @@
         <v>1965</v>
       </c>
       <c r="G448">
-        <v>982</v>
+        <v>982.5</v>
       </c>
       <c r="H448" s="2">
         <v>42910</v>
@@ -14794,7 +14794,7 @@
         <v>705</v>
       </c>
       <c r="G449">
-        <v>352</v>
+        <v>352.5</v>
       </c>
       <c r="H449" s="2">
         <v>42908</v>
@@ -14922,7 +14922,7 @@
         <v>2085</v>
       </c>
       <c r="G453">
-        <v>1042</v>
+        <v>1042.5</v>
       </c>
       <c r="H453" s="2">
         <v>42908</v>
@@ -14954,7 +14954,7 @@
         <v>3185</v>
       </c>
       <c r="G454">
-        <v>1592</v>
+        <v>1592.5</v>
       </c>
       <c r="H454" s="2">
         <v>42908</v>
@@ -14986,7 +14986,7 @@
         <v>3575</v>
       </c>
       <c r="G455">
-        <v>1787</v>
+        <v>1787.5</v>
       </c>
       <c r="H455" s="2">
         <v>42907</v>
@@ -15018,7 +15018,7 @@
         <v>2145</v>
       </c>
       <c r="G456">
-        <v>1072</v>
+        <v>1072.5</v>
       </c>
       <c r="H456" s="2">
         <v>42906</v>
@@ -15242,7 +15242,7 @@
         <v>3435</v>
       </c>
       <c r="G463">
-        <v>1717</v>
+        <v>1717.5</v>
       </c>
       <c r="H463" s="2">
         <v>42902</v>
@@ -15274,7 +15274,7 @@
         <v>1725</v>
       </c>
       <c r="G464">
-        <v>862</v>
+        <v>862.5</v>
       </c>
       <c r="H464" s="2">
         <v>42902</v>
@@ -15306,7 +15306,7 @@
         <v>3925</v>
       </c>
       <c r="G465">
-        <v>1962</v>
+        <v>1962.5</v>
       </c>
       <c r="H465" s="2">
         <v>42902</v>
@@ -15338,7 +15338,7 @@
         <v>2935</v>
       </c>
       <c r="G466">
-        <v>1467</v>
+        <v>1467.5</v>
       </c>
       <c r="H466" s="2">
         <v>42902</v>
@@ -15370,7 +15370,7 @@
         <v>675</v>
       </c>
       <c r="G467">
-        <v>337</v>
+        <v>337.5</v>
       </c>
       <c r="H467" s="2">
         <v>42902</v>
@@ -15402,7 +15402,7 @@
         <v>1265</v>
       </c>
       <c r="G468">
-        <v>632</v>
+        <v>632.5</v>
       </c>
       <c r="H468" s="2">
         <v>42902</v>
@@ -15466,7 +15466,7 @@
         <v>655</v>
       </c>
       <c r="G470">
-        <v>327</v>
+        <v>327.5</v>
       </c>
       <c r="H470" s="2">
         <v>42899</v>
@@ -15530,7 +15530,7 @@
         <v>2265</v>
       </c>
       <c r="G472">
-        <v>1132</v>
+        <v>1132.5</v>
       </c>
       <c r="H472" s="2">
         <v>42900</v>
@@ -15562,7 +15562,7 @@
         <v>1385</v>
       </c>
       <c r="G473">
-        <v>692</v>
+        <v>692.5</v>
       </c>
       <c r="H473" s="2">
         <v>42900</v>
@@ -15594,7 +15594,7 @@
         <v>485</v>
       </c>
       <c r="G474">
-        <v>242</v>
+        <v>242.5</v>
       </c>
       <c r="H474" s="2">
         <v>42897</v>
@@ -15658,7 +15658,7 @@
         <v>1935</v>
       </c>
       <c r="G476">
-        <v>967</v>
+        <v>967.5</v>
       </c>
       <c r="H476" s="2">
         <v>42898</v>
@@ -15722,7 +15722,7 @@
         <v>1215</v>
       </c>
       <c r="G478">
-        <v>607</v>
+        <v>607.5</v>
       </c>
       <c r="H478" s="2">
         <v>42897</v>
@@ -15850,7 +15850,7 @@
         <v>3985</v>
       </c>
       <c r="G482">
-        <v>1992</v>
+        <v>1992.5</v>
       </c>
       <c r="H482" s="2">
         <v>42896</v>
@@ -15882,7 +15882,7 @@
         <v>795</v>
       </c>
       <c r="G483">
-        <v>397</v>
+        <v>397.5</v>
       </c>
       <c r="H483" s="2">
         <v>42896</v>
@@ -16010,7 +16010,7 @@
         <v>3925</v>
       </c>
       <c r="G487">
-        <v>1962</v>
+        <v>1962.5</v>
       </c>
       <c r="H487" s="2">
         <v>42895</v>
@@ -16106,7 +16106,7 @@
         <v>1215</v>
       </c>
       <c r="G490">
-        <v>607</v>
+        <v>607.5</v>
       </c>
       <c r="H490" s="2">
         <v>42893</v>
@@ -16170,7 +16170,7 @@
         <v>1365</v>
       </c>
       <c r="G492">
-        <v>682</v>
+        <v>682.5</v>
       </c>
       <c r="H492" s="2">
         <v>42891</v>
@@ -16202,7 +16202,7 @@
         <v>905</v>
       </c>
       <c r="G493">
-        <v>452</v>
+        <v>452.5</v>
       </c>
       <c r="H493" s="2">
         <v>42891</v>
@@ -16266,7 +16266,7 @@
         <v>3875</v>
       </c>
       <c r="G495">
-        <v>1937</v>
+        <v>1937.5</v>
       </c>
       <c r="H495" s="2">
         <v>42889</v>
@@ -16298,7 +16298,7 @@
         <v>2015</v>
       </c>
       <c r="G496">
-        <v>1007</v>
+        <v>1007.5</v>
       </c>
       <c r="H496" s="2">
         <v>42889</v>
@@ -16394,7 +16394,7 @@
         <v>3005</v>
       </c>
       <c r="G499">
-        <v>1502</v>
+        <v>1502.5</v>
       </c>
       <c r="H499" s="2">
         <v>42889</v>
@@ -16810,7 +16810,7 @@
         <v>2495</v>
       </c>
       <c r="G512">
-        <v>1247</v>
+        <v>1247.5</v>
       </c>
       <c r="H512" s="2">
         <v>42885</v>
@@ -16842,7 +16842,7 @@
         <v>3485</v>
       </c>
       <c r="G513">
-        <v>1742</v>
+        <v>1742.5</v>
       </c>
       <c r="H513" s="2">
         <v>42883</v>
@@ -16874,7 +16874,7 @@
         <v>4955</v>
       </c>
       <c r="G514">
-        <v>2477</v>
+        <v>2477.5</v>
       </c>
       <c r="H514" s="2">
         <v>42884</v>
@@ -16906,7 +16906,7 @@
         <v>1225</v>
       </c>
       <c r="G515">
-        <v>612</v>
+        <v>612.5</v>
       </c>
       <c r="H515" s="2">
         <v>42882</v>
@@ -16938,7 +16938,7 @@
         <v>575</v>
       </c>
       <c r="G516">
-        <v>287</v>
+        <v>287.5</v>
       </c>
       <c r="H516" s="2">
         <v>42881</v>
@@ -16970,7 +16970,7 @@
         <v>3735</v>
       </c>
       <c r="G517">
-        <v>1867</v>
+        <v>1867.5</v>
       </c>
       <c r="H517" s="2">
         <v>42883</v>
@@ -17066,7 +17066,7 @@
         <v>4875</v>
       </c>
       <c r="G520">
-        <v>2437</v>
+        <v>2437.5</v>
       </c>
       <c r="H520" s="2">
         <v>42881</v>
@@ -17098,7 +17098,7 @@
         <v>2515</v>
       </c>
       <c r="G521">
-        <v>1257</v>
+        <v>1257.5</v>
       </c>
       <c r="H521" s="2">
         <v>42880</v>
@@ -17130,7 +17130,7 @@
         <v>3525</v>
       </c>
       <c r="G522">
-        <v>1762</v>
+        <v>1762.5</v>
       </c>
       <c r="H522" s="2">
         <v>42879</v>
@@ -17162,7 +17162,7 @@
         <v>4535</v>
       </c>
       <c r="G523">
-        <v>2267</v>
+        <v>2267.5</v>
       </c>
       <c r="H523" s="2">
         <v>42879</v>
@@ -17194,7 +17194,7 @@
         <v>4845</v>
       </c>
       <c r="G524">
-        <v>2422</v>
+        <v>2422.5</v>
       </c>
       <c r="H524" s="2">
         <v>42878</v>
@@ -17258,7 +17258,7 @@
         <v>3415</v>
       </c>
       <c r="G526">
-        <v>1707</v>
+        <v>1707.5</v>
       </c>
       <c r="H526" s="2">
         <v>42877</v>
@@ -17290,7 +17290,7 @@
         <v>2525</v>
       </c>
       <c r="G527">
-        <v>1262</v>
+        <v>1262.5</v>
       </c>
       <c r="H527" s="2">
         <v>42877</v>
@@ -17418,7 +17418,7 @@
         <v>1165</v>
       </c>
       <c r="G531">
-        <v>582</v>
+        <v>582.5</v>
       </c>
       <c r="H531" s="2">
         <v>42875</v>
@@ -17514,7 +17514,7 @@
         <v>1805</v>
       </c>
       <c r="G534">
-        <v>902</v>
+        <v>902.5</v>
       </c>
       <c r="H534" s="2">
         <v>42873</v>
@@ -17546,7 +17546,7 @@
         <v>1905</v>
       </c>
       <c r="G535">
-        <v>952</v>
+        <v>952.5</v>
       </c>
       <c r="H535" s="2">
         <v>42874</v>
@@ -17610,7 +17610,7 @@
         <v>4285</v>
       </c>
       <c r="G537">
-        <v>2142</v>
+        <v>2142.5</v>
       </c>
       <c r="H537" s="2">
         <v>42873</v>
@@ -17674,7 +17674,7 @@
         <v>4035</v>
       </c>
       <c r="G539">
-        <v>2017</v>
+        <v>2017.5</v>
       </c>
       <c r="H539" s="2">
         <v>42871</v>
@@ -17770,7 +17770,7 @@
         <v>1965</v>
       </c>
       <c r="G542">
-        <v>982</v>
+        <v>982.5</v>
       </c>
       <c r="H542" s="2">
         <v>42869</v>
@@ -17898,7 +17898,7 @@
         <v>335</v>
       </c>
       <c r="G546">
-        <v>167</v>
+        <v>167.5</v>
       </c>
       <c r="H546" s="2">
         <v>42868</v>
@@ -17930,7 +17930,7 @@
         <v>3865</v>
       </c>
       <c r="G547">
-        <v>1932</v>
+        <v>1932.5</v>
       </c>
       <c r="H547" s="2">
         <v>42870</v>
@@ -17962,7 +17962,7 @@
         <v>475</v>
       </c>
       <c r="G548">
-        <v>237</v>
+        <v>237.5</v>
       </c>
       <c r="H548" s="2">
         <v>42867</v>
@@ -18058,7 +18058,7 @@
         <v>345</v>
       </c>
       <c r="G551">
-        <v>172</v>
+        <v>172.5</v>
       </c>
       <c r="H551" s="2">
         <v>42862</v>
@@ -18090,7 +18090,7 @@
         <v>725</v>
       </c>
       <c r="G552">
-        <v>362</v>
+        <v>362.5</v>
       </c>
       <c r="H552" s="2">
         <v>42862</v>
@@ -18122,7 +18122,7 @@
         <v>3195</v>
       </c>
       <c r="G553">
-        <v>1597</v>
+        <v>1597.5</v>
       </c>
       <c r="H553" s="2">
         <v>42864</v>
@@ -18218,7 +18218,7 @@
         <v>1715</v>
       </c>
       <c r="G556">
-        <v>857</v>
+        <v>857.5</v>
       </c>
       <c r="H556" s="2">
         <v>42861</v>
@@ -18346,7 +18346,7 @@
         <v>2245</v>
       </c>
       <c r="G560">
-        <v>1122</v>
+        <v>1122.5</v>
       </c>
       <c r="H560" s="2">
         <v>42858</v>
@@ -18378,7 +18378,7 @@
         <v>2065</v>
       </c>
       <c r="G561">
-        <v>1032</v>
+        <v>1032.5</v>
       </c>
       <c r="H561" s="2">
         <v>42859</v>
@@ -18506,7 +18506,7 @@
         <v>2925</v>
       </c>
       <c r="G565">
-        <v>1462</v>
+        <v>1462.5</v>
       </c>
       <c r="H565" s="2">
         <v>42855</v>
@@ -18538,7 +18538,7 @@
         <v>4245</v>
       </c>
       <c r="G566">
-        <v>2122</v>
+        <v>2122.5</v>
       </c>
       <c r="H566" s="2">
         <v>42854</v>
@@ -18570,7 +18570,7 @@
         <v>3305</v>
       </c>
       <c r="G567">
-        <v>1652</v>
+        <v>1652.5</v>
       </c>
       <c r="H567" s="2">
         <v>42853</v>
@@ -18634,7 +18634,7 @@
         <v>3815</v>
       </c>
       <c r="G569">
-        <v>1907</v>
+        <v>1907.5</v>
       </c>
       <c r="H569" s="2">
         <v>42854</v>
@@ -18698,7 +18698,7 @@
         <v>3205</v>
       </c>
       <c r="G571">
-        <v>1602</v>
+        <v>1602.5</v>
       </c>
       <c r="H571" s="2">
         <v>42853</v>
@@ -18730,7 +18730,7 @@
         <v>3845</v>
       </c>
       <c r="G572">
-        <v>1922</v>
+        <v>1922.5</v>
       </c>
       <c r="H572" s="2">
         <v>42851</v>
@@ -18826,7 +18826,7 @@
         <v>2135</v>
       </c>
       <c r="G575">
-        <v>1067</v>
+        <v>1067.5</v>
       </c>
       <c r="H575" s="2">
         <v>42848</v>
@@ -19018,7 +19018,7 @@
         <v>1685</v>
       </c>
       <c r="G581">
-        <v>842</v>
+        <v>842.5</v>
       </c>
       <c r="H581" s="2">
         <v>42845</v>
@@ -19050,7 +19050,7 @@
         <v>1045</v>
       </c>
       <c r="G582">
-        <v>522</v>
+        <v>522.5</v>
       </c>
       <c r="H582" s="2">
         <v>42844</v>
@@ -19082,7 +19082,7 @@
         <v>3405</v>
       </c>
       <c r="G583">
-        <v>1702</v>
+        <v>1702.5</v>
       </c>
       <c r="H583" s="2">
         <v>42845</v>
@@ -19146,7 +19146,7 @@
         <v>4825</v>
       </c>
       <c r="G585">
-        <v>2412</v>
+        <v>2412.5</v>
       </c>
       <c r="H585" s="2">
         <v>42842</v>
@@ -19210,7 +19210,7 @@
         <v>465</v>
       </c>
       <c r="G587">
-        <v>232</v>
+        <v>232.5</v>
       </c>
       <c r="H587" s="2">
         <v>42841</v>
@@ -19242,7 +19242,7 @@
         <v>1705</v>
       </c>
       <c r="G588">
-        <v>852</v>
+        <v>852.5</v>
       </c>
       <c r="H588" s="2">
         <v>42843</v>
@@ -19306,7 +19306,7 @@
         <v>1775</v>
       </c>
       <c r="G590">
-        <v>887</v>
+        <v>887.5</v>
       </c>
       <c r="H590" s="2">
         <v>42842</v>
@@ -19338,7 +19338,7 @@
         <v>3825</v>
       </c>
       <c r="G591">
-        <v>1912</v>
+        <v>1912.5</v>
       </c>
       <c r="H591" s="2">
         <v>42841</v>
@@ -19370,7 +19370,7 @@
         <v>4565</v>
       </c>
       <c r="G592">
-        <v>2282</v>
+        <v>2282.5</v>
       </c>
       <c r="H592" s="2">
         <v>42842</v>
@@ -19434,7 +19434,7 @@
         <v>4015</v>
       </c>
       <c r="G594">
-        <v>2007</v>
+        <v>2007.5</v>
       </c>
       <c r="H594" s="2">
         <v>42841</v>
@@ -19562,7 +19562,7 @@
         <v>1265</v>
       </c>
       <c r="G598">
-        <v>632</v>
+        <v>632.5</v>
       </c>
       <c r="H598" s="2">
         <v>42838</v>
@@ -19626,7 +19626,7 @@
         <v>2595</v>
       </c>
       <c r="G600">
-        <v>1297</v>
+        <v>1297.5</v>
       </c>
       <c r="H600" s="2">
         <v>42838</v>
@@ -19786,7 +19786,7 @@
         <v>3515</v>
       </c>
       <c r="G605">
-        <v>1757</v>
+        <v>1757.5</v>
       </c>
       <c r="H605" s="2">
         <v>42838</v>
@@ -19818,7 +19818,7 @@
         <v>2975</v>
       </c>
       <c r="G606">
-        <v>1487</v>
+        <v>1487.5</v>
       </c>
       <c r="H606" s="2">
         <v>42837</v>
@@ -19850,7 +19850,7 @@
         <v>875</v>
       </c>
       <c r="G607">
-        <v>437</v>
+        <v>437.5</v>
       </c>
       <c r="H607" s="2">
         <v>42836</v>
@@ -19882,7 +19882,7 @@
         <v>2985</v>
       </c>
       <c r="G608">
-        <v>1492</v>
+        <v>1492.5</v>
       </c>
       <c r="H608" s="2">
         <v>42835</v>
@@ -19914,7 +19914,7 @@
         <v>345</v>
       </c>
       <c r="G609">
-        <v>172</v>
+        <v>172.5</v>
       </c>
       <c r="H609" s="2">
         <v>42835</v>
@@ -19946,7 +19946,7 @@
         <v>2545</v>
       </c>
       <c r="G610">
-        <v>1272</v>
+        <v>1272.5</v>
       </c>
       <c r="H610" s="2">
         <v>42834</v>
@@ -20010,7 +20010,7 @@
         <v>3325</v>
       </c>
       <c r="G612">
-        <v>1662</v>
+        <v>1662.5</v>
       </c>
       <c r="H612" s="2">
         <v>42836</v>
@@ -20042,7 +20042,7 @@
         <v>2925</v>
       </c>
       <c r="G613">
-        <v>1462</v>
+        <v>1462.5</v>
       </c>
       <c r="H613" s="2">
         <v>42834</v>
@@ -20074,7 +20074,7 @@
         <v>2025</v>
       </c>
       <c r="G614">
-        <v>1012</v>
+        <v>1012.5</v>
       </c>
       <c r="H614" s="2">
         <v>42835</v>
@@ -20106,7 +20106,7 @@
         <v>4335</v>
       </c>
       <c r="G615">
-        <v>2167</v>
+        <v>2167.5</v>
       </c>
       <c r="H615" s="2">
         <v>42832</v>
@@ -20138,7 +20138,7 @@
         <v>1645</v>
       </c>
       <c r="G616">
-        <v>822</v>
+        <v>822.5</v>
       </c>
       <c r="H616" s="2">
         <v>42832</v>
@@ -20202,7 +20202,7 @@
         <v>4905</v>
       </c>
       <c r="G618">
-        <v>2452</v>
+        <v>2452.5</v>
       </c>
       <c r="H618" s="2">
         <v>42834</v>
@@ -20234,7 +20234,7 @@
         <v>1625</v>
       </c>
       <c r="G619">
-        <v>812</v>
+        <v>812.5</v>
       </c>
       <c r="H619" s="2">
         <v>42832</v>
@@ -20266,7 +20266,7 @@
         <v>4135</v>
       </c>
       <c r="G620">
-        <v>2067</v>
+        <v>2067.5</v>
       </c>
       <c r="H620" s="2">
         <v>42831</v>
@@ -20298,7 +20298,7 @@
         <v>2375</v>
       </c>
       <c r="G621">
-        <v>1187</v>
+        <v>1187.5</v>
       </c>
       <c r="H621" s="2">
         <v>42833</v>
@@ -20362,7 +20362,7 @@
         <v>3805</v>
       </c>
       <c r="G623">
-        <v>1902</v>
+        <v>1902.5</v>
       </c>
       <c r="H623" s="2">
         <v>42832</v>
@@ -20426,7 +20426,7 @@
         <v>1075</v>
       </c>
       <c r="G625">
-        <v>537</v>
+        <v>537.5</v>
       </c>
       <c r="H625" s="2">
         <v>42832</v>
@@ -20490,7 +20490,7 @@
         <v>2455</v>
       </c>
       <c r="G627">
-        <v>1227</v>
+        <v>1227.5</v>
       </c>
       <c r="H627" s="2">
         <v>42829</v>
@@ -20682,7 +20682,7 @@
         <v>1825</v>
       </c>
       <c r="G633">
-        <v>912</v>
+        <v>912.5</v>
       </c>
       <c r="H633" s="2">
         <v>42828</v>
@@ -20746,7 +20746,7 @@
         <v>2865</v>
       </c>
       <c r="G635">
-        <v>1432</v>
+        <v>1432.5</v>
       </c>
       <c r="H635" s="2">
         <v>42825</v>
@@ -20778,7 +20778,7 @@
         <v>965</v>
       </c>
       <c r="G636">
-        <v>482</v>
+        <v>482.5</v>
       </c>
       <c r="H636" s="2">
         <v>42825</v>
@@ -20810,7 +20810,7 @@
         <v>755</v>
       </c>
       <c r="G637">
-        <v>377</v>
+        <v>377.5</v>
       </c>
       <c r="H637" s="2">
         <v>42824</v>
@@ -20874,7 +20874,7 @@
         <v>2195</v>
       </c>
       <c r="G639">
-        <v>1097</v>
+        <v>1097.5</v>
       </c>
       <c r="H639" s="2">
         <v>42822</v>
@@ -20906,7 +20906,7 @@
         <v>3185</v>
       </c>
       <c r="G640">
-        <v>1592</v>
+        <v>1592.5</v>
       </c>
       <c r="H640" s="2">
         <v>42824</v>
@@ -20938,7 +20938,7 @@
         <v>3225</v>
       </c>
       <c r="G641">
-        <v>1612</v>
+        <v>1612.5</v>
       </c>
       <c r="H641" s="2">
         <v>42821</v>
@@ -21002,7 +21002,7 @@
         <v>2705</v>
       </c>
       <c r="G643">
-        <v>1352</v>
+        <v>1352.5</v>
       </c>
       <c r="H643" s="2">
         <v>42820</v>
@@ -21034,7 +21034,7 @@
         <v>2355</v>
       </c>
       <c r="G644">
-        <v>1177</v>
+        <v>1177.5</v>
       </c>
       <c r="H644" s="2">
         <v>42820</v>
@@ -21066,7 +21066,7 @@
         <v>3825</v>
       </c>
       <c r="G645">
-        <v>1912</v>
+        <v>1912.5</v>
       </c>
       <c r="H645" s="2">
         <v>42819</v>
@@ -21098,7 +21098,7 @@
         <v>2065</v>
       </c>
       <c r="G646">
-        <v>1032</v>
+        <v>1032.5</v>
       </c>
       <c r="H646" s="2">
         <v>42817</v>
@@ -21130,7 +21130,7 @@
         <v>1925</v>
       </c>
       <c r="G647">
-        <v>962</v>
+        <v>962.5</v>
       </c>
       <c r="H647" s="2">
         <v>42819</v>
@@ -21162,7 +21162,7 @@
         <v>465</v>
       </c>
       <c r="G648">
-        <v>232</v>
+        <v>232.5</v>
       </c>
       <c r="H648" s="2">
         <v>42817</v>
@@ -21194,7 +21194,7 @@
         <v>1395</v>
       </c>
       <c r="G649">
-        <v>697</v>
+        <v>697.5</v>
       </c>
       <c r="H649" s="2">
         <v>42816</v>
@@ -21226,7 +21226,7 @@
         <v>2455</v>
       </c>
       <c r="G650">
-        <v>1227</v>
+        <v>1227.5</v>
       </c>
       <c r="H650" s="2">
         <v>42818</v>
@@ -21258,7 +21258,7 @@
         <v>1375</v>
       </c>
       <c r="G651">
-        <v>687</v>
+        <v>687.5</v>
       </c>
       <c r="H651" s="2">
         <v>42814</v>
@@ -21290,7 +21290,7 @@
         <v>465</v>
       </c>
       <c r="G652">
-        <v>232</v>
+        <v>232.5</v>
       </c>
       <c r="H652" s="2">
         <v>42814</v>
@@ -21322,7 +21322,7 @@
         <v>2285</v>
       </c>
       <c r="G653">
-        <v>1142</v>
+        <v>1142.5</v>
       </c>
       <c r="H653" s="2">
         <v>42814</v>
@@ -21354,7 +21354,7 @@
         <v>4135</v>
       </c>
       <c r="G654">
-        <v>2067</v>
+        <v>2067.5</v>
       </c>
       <c r="H654" s="2">
         <v>42814</v>
@@ -21418,7 +21418,7 @@
         <v>3205</v>
       </c>
       <c r="G656">
-        <v>1602</v>
+        <v>1602.5</v>
       </c>
       <c r="H656" s="2">
         <v>42813</v>
@@ -21482,7 +21482,7 @@
         <v>1835</v>
       </c>
       <c r="G658">
-        <v>917</v>
+        <v>917.5</v>
       </c>
       <c r="H658" s="2">
         <v>42810</v>
@@ -21514,7 +21514,7 @@
         <v>305</v>
       </c>
       <c r="G659">
-        <v>152</v>
+        <v>152.5</v>
       </c>
       <c r="H659" s="2">
         <v>42812</v>
@@ -21546,7 +21546,7 @@
         <v>4425</v>
       </c>
       <c r="G660">
-        <v>2212</v>
+        <v>2212.5</v>
       </c>
       <c r="H660" s="2">
         <v>42811</v>
@@ -21578,7 +21578,7 @@
         <v>4405</v>
       </c>
       <c r="G661">
-        <v>2202</v>
+        <v>2202.5</v>
       </c>
       <c r="H661" s="2">
         <v>42810</v>
@@ -21706,7 +21706,7 @@
         <v>4635</v>
       </c>
       <c r="G665">
-        <v>2317</v>
+        <v>2317.5</v>
       </c>
       <c r="H665" s="2">
         <v>42807</v>
@@ -21802,7 +21802,7 @@
         <v>3055</v>
       </c>
       <c r="G668">
-        <v>1527</v>
+        <v>1527.5</v>
       </c>
       <c r="H668" s="2">
         <v>42808</v>
@@ -21930,7 +21930,7 @@
         <v>2315</v>
       </c>
       <c r="G672">
-        <v>1157</v>
+        <v>1157.5</v>
       </c>
       <c r="H672" s="2">
         <v>42804</v>
@@ -21962,7 +21962,7 @@
         <v>3875</v>
       </c>
       <c r="G673">
-        <v>1937</v>
+        <v>1937.5</v>
       </c>
       <c r="H673" s="2">
         <v>42804</v>
@@ -22026,7 +22026,7 @@
         <v>2195</v>
       </c>
       <c r="G675">
-        <v>1097</v>
+        <v>1097.5</v>
       </c>
       <c r="H675" s="2">
         <v>42802</v>
@@ -22154,7 +22154,7 @@
         <v>1245</v>
       </c>
       <c r="G679">
-        <v>622</v>
+        <v>622.5</v>
       </c>
       <c r="H679" s="2">
         <v>42802</v>
@@ -22186,7 +22186,7 @@
         <v>1905</v>
       </c>
       <c r="G680">
-        <v>952</v>
+        <v>952.5</v>
       </c>
       <c r="H680" s="2">
         <v>42801</v>
@@ -22218,7 +22218,7 @@
         <v>955</v>
       </c>
       <c r="G681">
-        <v>477</v>
+        <v>477.5</v>
       </c>
       <c r="H681" s="2">
         <v>42800</v>
@@ -22282,7 +22282,7 @@
         <v>1055</v>
       </c>
       <c r="G683">
-        <v>527</v>
+        <v>527.5</v>
       </c>
       <c r="H683" s="2">
         <v>42800</v>
@@ -22378,7 +22378,7 @@
         <v>4005</v>
       </c>
       <c r="G686">
-        <v>2002</v>
+        <v>2002.5</v>
       </c>
       <c r="H686" s="2">
         <v>42799</v>
@@ -22442,7 +22442,7 @@
         <v>3895</v>
       </c>
       <c r="G688">
-        <v>1947</v>
+        <v>1947.5</v>
       </c>
       <c r="H688" s="2">
         <v>42799</v>
@@ -22474,7 +22474,7 @@
         <v>2915</v>
       </c>
       <c r="G689">
-        <v>1457</v>
+        <v>1457.5</v>
       </c>
       <c r="H689" s="2">
         <v>42798</v>
@@ -22506,7 +22506,7 @@
         <v>795</v>
       </c>
       <c r="G690">
-        <v>397</v>
+        <v>397.5</v>
       </c>
       <c r="H690" s="2">
         <v>42795</v>
@@ -22570,7 +22570,7 @@
         <v>2805</v>
       </c>
       <c r="G692">
-        <v>1402</v>
+        <v>1402.5</v>
       </c>
       <c r="H692" s="2">
         <v>42795</v>
@@ -22634,7 +22634,7 @@
         <v>2125</v>
       </c>
       <c r="G694">
-        <v>1062</v>
+        <v>1062.5</v>
       </c>
       <c r="H694" s="2">
         <v>42795</v>
@@ -22666,7 +22666,7 @@
         <v>2185</v>
       </c>
       <c r="G695">
-        <v>1092</v>
+        <v>1092.5</v>
       </c>
       <c r="H695" s="2">
         <v>42795</v>
@@ -22698,7 +22698,7 @@
         <v>1175</v>
       </c>
       <c r="G696">
-        <v>587</v>
+        <v>587.5</v>
       </c>
       <c r="H696" s="2">
         <v>42794</v>
@@ -22730,7 +22730,7 @@
         <v>565</v>
       </c>
       <c r="G697">
-        <v>282</v>
+        <v>282.5</v>
       </c>
       <c r="H697" s="2">
         <v>42793</v>
@@ -22794,7 +22794,7 @@
         <v>4595</v>
       </c>
       <c r="G699">
-        <v>2297</v>
+        <v>2297.5</v>
       </c>
       <c r="H699" s="2">
         <v>42792</v>
@@ -22826,7 +22826,7 @@
         <v>1305</v>
       </c>
       <c r="G700">
-        <v>652</v>
+        <v>652.5</v>
       </c>
       <c r="H700" s="2">
         <v>42792</v>
@@ -22954,7 +22954,7 @@
         <v>3075</v>
       </c>
       <c r="G704">
-        <v>1537</v>
+        <v>1537.5</v>
       </c>
       <c r="H704" s="2">
         <v>42788</v>
@@ -22986,7 +22986,7 @@
         <v>4045</v>
       </c>
       <c r="G705">
-        <v>2022</v>
+        <v>2022.5</v>
       </c>
       <c r="H705" s="2">
         <v>42790</v>
@@ -23018,7 +23018,7 @@
         <v>3205</v>
       </c>
       <c r="G706">
-        <v>1602</v>
+        <v>1602.5</v>
       </c>
       <c r="H706" s="2">
         <v>42788</v>
@@ -23050,7 +23050,7 @@
         <v>3005</v>
       </c>
       <c r="G707">
-        <v>1502</v>
+        <v>1502.5</v>
       </c>
       <c r="H707" s="2">
         <v>42788</v>
@@ -23114,7 +23114,7 @@
         <v>1175</v>
       </c>
       <c r="G709">
-        <v>587</v>
+        <v>587.5</v>
       </c>
       <c r="H709" s="2">
         <v>42788</v>
@@ -23146,7 +23146,7 @@
         <v>2845</v>
       </c>
       <c r="G710">
-        <v>1422</v>
+        <v>1422.5</v>
       </c>
       <c r="H710" s="2">
         <v>42785</v>
@@ -23178,7 +23178,7 @@
         <v>535</v>
       </c>
       <c r="G711">
-        <v>267</v>
+        <v>267.5</v>
       </c>
       <c r="H711" s="2">
         <v>42784</v>
@@ -23210,7 +23210,7 @@
         <v>1915</v>
       </c>
       <c r="G712">
-        <v>957</v>
+        <v>957.5</v>
       </c>
       <c r="H712" s="2">
         <v>42784</v>
@@ -23242,7 +23242,7 @@
         <v>975</v>
       </c>
       <c r="G713">
-        <v>487</v>
+        <v>487.5</v>
       </c>
       <c r="H713" s="2">
         <v>42784</v>
@@ -23274,7 +23274,7 @@
         <v>3375</v>
       </c>
       <c r="G714">
-        <v>1687</v>
+        <v>1687.5</v>
       </c>
       <c r="H714" s="2">
         <v>42783</v>
@@ -23306,7 +23306,7 @@
         <v>3335</v>
       </c>
       <c r="G715">
-        <v>1667</v>
+        <v>1667.5</v>
       </c>
       <c r="H715" s="2">
         <v>42783</v>
@@ -23370,7 +23370,7 @@
         <v>4435</v>
       </c>
       <c r="G717">
-        <v>2217</v>
+        <v>2217.5</v>
       </c>
       <c r="H717" s="2">
         <v>42780</v>
@@ -23434,7 +23434,7 @@
         <v>2075</v>
       </c>
       <c r="G719">
-        <v>1037</v>
+        <v>1037.5</v>
       </c>
       <c r="H719" s="2">
         <v>42780</v>
@@ -23498,7 +23498,7 @@
         <v>2675</v>
       </c>
       <c r="G721">
-        <v>1337</v>
+        <v>1337.5</v>
       </c>
       <c r="H721" s="2">
         <v>42781</v>
@@ -23626,7 +23626,7 @@
         <v>2885</v>
       </c>
       <c r="G725">
-        <v>1442</v>
+        <v>1442.5</v>
       </c>
       <c r="H725" s="2">
         <v>42778</v>
@@ -23690,7 +23690,7 @@
         <v>4225</v>
       </c>
       <c r="G727">
-        <v>2112</v>
+        <v>2112.5</v>
       </c>
       <c r="H727" s="2">
         <v>42775</v>
@@ -23754,7 +23754,7 @@
         <v>2655</v>
       </c>
       <c r="G729">
-        <v>1327</v>
+        <v>1327.5</v>
       </c>
       <c r="H729" s="2">
         <v>42773</v>
@@ -23786,7 +23786,7 @@
         <v>1185</v>
       </c>
       <c r="G730">
-        <v>592</v>
+        <v>592.5</v>
       </c>
       <c r="H730" s="2">
         <v>42774</v>
@@ -23818,7 +23818,7 @@
         <v>4295</v>
       </c>
       <c r="G731">
-        <v>2147</v>
+        <v>2147.5</v>
       </c>
       <c r="H731" s="2">
         <v>42773</v>
@@ -23850,7 +23850,7 @@
         <v>3705</v>
       </c>
       <c r="G732">
-        <v>1852</v>
+        <v>1852.5</v>
       </c>
       <c r="H732" s="2">
         <v>42774</v>
@@ -24042,7 +24042,7 @@
         <v>385</v>
       </c>
       <c r="G738">
-        <v>192</v>
+        <v>192.5</v>
       </c>
       <c r="H738" s="2">
         <v>42770</v>
@@ -24234,7 +24234,7 @@
         <v>725</v>
       </c>
       <c r="G744">
-        <v>362</v>
+        <v>362.5</v>
       </c>
       <c r="H744" s="2">
         <v>42770</v>
@@ -24330,7 +24330,7 @@
         <v>4785</v>
       </c>
       <c r="G747">
-        <v>2392</v>
+        <v>2392.5</v>
       </c>
       <c r="H747" s="2">
         <v>42768</v>
@@ -24394,7 +24394,7 @@
         <v>415</v>
       </c>
       <c r="G749">
-        <v>207</v>
+        <v>207.5</v>
       </c>
       <c r="H749" s="2">
         <v>42767</v>
@@ -24426,7 +24426,7 @@
         <v>3745</v>
       </c>
       <c r="G750">
-        <v>1872</v>
+        <v>1872.5</v>
       </c>
       <c r="H750" s="2">
         <v>42766</v>
@@ -24490,7 +24490,7 @@
         <v>1525</v>
       </c>
       <c r="G752">
-        <v>762</v>
+        <v>762.5</v>
       </c>
       <c r="H752" s="2">
         <v>42765</v>
@@ -24554,7 +24554,7 @@
         <v>855</v>
       </c>
       <c r="G754">
-        <v>427</v>
+        <v>427.5</v>
       </c>
       <c r="H754" s="2">
         <v>42765</v>
@@ -24746,7 +24746,7 @@
         <v>1205</v>
       </c>
       <c r="G760">
-        <v>602</v>
+        <v>602.5</v>
       </c>
       <c r="H760" s="2">
         <v>42759</v>
@@ -24810,7 +24810,7 @@
         <v>2935</v>
       </c>
       <c r="G762">
-        <v>1467</v>
+        <v>1467.5</v>
       </c>
       <c r="H762" s="2">
         <v>42757</v>
@@ -24842,7 +24842,7 @@
         <v>905</v>
       </c>
       <c r="G763">
-        <v>452</v>
+        <v>452.5</v>
       </c>
       <c r="H763" s="2">
         <v>42756</v>
@@ -24874,7 +24874,7 @@
         <v>1125</v>
       </c>
       <c r="G764">
-        <v>562</v>
+        <v>562.5</v>
       </c>
       <c r="H764" s="2">
         <v>42757</v>
@@ -24906,7 +24906,7 @@
         <v>2455</v>
       </c>
       <c r="G765">
-        <v>1227</v>
+        <v>1227.5</v>
       </c>
       <c r="H765" s="2">
         <v>42756</v>
@@ -24938,7 +24938,7 @@
         <v>875</v>
       </c>
       <c r="G766">
-        <v>437</v>
+        <v>437.5</v>
       </c>
       <c r="H766" s="2">
         <v>42755</v>
@@ -24970,7 +24970,7 @@
         <v>2835</v>
       </c>
       <c r="G767">
-        <v>1417</v>
+        <v>1417.5</v>
       </c>
       <c r="H767" s="2">
         <v>42757</v>
@@ -25034,7 +25034,7 @@
         <v>1635</v>
       </c>
       <c r="G769">
-        <v>817</v>
+        <v>817.5</v>
       </c>
       <c r="H769" s="2">
         <v>42754</v>
@@ -25130,7 +25130,7 @@
         <v>3885</v>
       </c>
       <c r="G772">
-        <v>1942</v>
+        <v>1942.5</v>
       </c>
       <c r="H772" s="2">
         <v>42752</v>
@@ -25322,7 +25322,7 @@
         <v>1635</v>
       </c>
       <c r="G778">
-        <v>817</v>
+        <v>817.5</v>
       </c>
       <c r="H778" s="2">
         <v>42749</v>
@@ -25418,7 +25418,7 @@
         <v>1045</v>
       </c>
       <c r="G781">
-        <v>522</v>
+        <v>522.5</v>
       </c>
       <c r="H781" s="2">
         <v>42748</v>
@@ -25450,7 +25450,7 @@
         <v>495</v>
       </c>
       <c r="G782">
-        <v>247</v>
+        <v>247.5</v>
       </c>
       <c r="H782" s="2">
         <v>42746</v>
@@ -25482,7 +25482,7 @@
         <v>1005</v>
       </c>
       <c r="G783">
-        <v>502</v>
+        <v>502.5</v>
       </c>
       <c r="H783" s="2">
         <v>42747</v>
@@ -25578,7 +25578,7 @@
         <v>3955</v>
       </c>
       <c r="G786">
-        <v>1977</v>
+        <v>1977.5</v>
       </c>
       <c r="H786" s="2">
         <v>42744</v>
@@ -25642,7 +25642,7 @@
         <v>4775</v>
       </c>
       <c r="G788">
-        <v>2387</v>
+        <v>2387.5</v>
       </c>
       <c r="H788" s="2">
         <v>42742</v>
@@ -25706,7 +25706,7 @@
         <v>2805</v>
       </c>
       <c r="G790">
-        <v>1402</v>
+        <v>1402.5</v>
       </c>
       <c r="H790" s="2">
         <v>42742</v>
@@ -25770,7 +25770,7 @@
         <v>2865</v>
       </c>
       <c r="G792">
-        <v>1432</v>
+        <v>1432.5</v>
       </c>
       <c r="H792" s="2">
         <v>42740</v>
@@ -25802,7 +25802,7 @@
         <v>4535</v>
       </c>
       <c r="G793">
-        <v>2267</v>
+        <v>2267.5</v>
       </c>
       <c r="H793" s="2">
         <v>42741</v>
@@ -25834,7 +25834,7 @@
         <v>2315</v>
       </c>
       <c r="G794">
-        <v>1157</v>
+        <v>1157.5</v>
       </c>
       <c r="H794" s="2">
         <v>42741</v>
@@ -25962,7 +25962,7 @@
         <v>535</v>
       </c>
       <c r="G798">
-        <v>267</v>
+        <v>267.5</v>
       </c>
       <c r="H798" s="2">
         <v>42736</v>
@@ -26026,7 +26026,7 @@
         <v>3825</v>
       </c>
       <c r="G800">
-        <v>1912</v>
+        <v>1912.5</v>
       </c>
       <c r="H800" s="2">
         <v>42736</v>
